--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20400" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Attribute</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>TotalPrices</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
+    <t>Percentpromotion</t>
   </si>
 </sst>
 </file>
@@ -536,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:J21"/>
+  <dimension ref="D5:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,6 +821,16 @@
     <row r="21" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F21" s="7" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>Attribute</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Percentpromotion</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:J23"/>
+  <dimension ref="D5:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,6 +834,11 @@
     <row r="23" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F23" s="7" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>Attribute</t>
   </si>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,6 +760,9 @@
       </c>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
@@ -771,6 +774,9 @@
       </c>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>23</v>
       </c>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Attribute</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Istop</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
   <dimension ref="D5:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +790,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="F17" s="7" t="s">
         <v>27</v>
       </c>
@@ -798,7 +804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F18" s="7" t="s">
         <v>28</v>
       </c>
@@ -809,7 +815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F19" s="7" t="s">
         <v>29</v>
       </c>
@@ -818,7 +824,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F20" s="7" t="s">
         <v>30</v>
       </c>
@@ -827,22 +833,22 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F21" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F22" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F23" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F24" s="7" t="s">
         <v>46</v>
       </c>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Attribute</t>
   </si>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:J24"/>
+  <dimension ref="D5:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,174 +682,185 @@
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D13" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D14" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E16" s="7" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="G18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F21" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F22" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F24" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Attribute</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Istop</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
   <dimension ref="D5:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,6 +819,9 @@
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="F19" s="7" t="s">
         <v>28</v>
       </c>
